--- a/src/results/charts/benchmark.xlsx
+++ b/src/results/charts/benchmark.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="speedup" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="13">
   <si>
     <t>Barnes</t>
   </si>
@@ -50,13 +50,7 @@
     <t>ACP</t>
   </si>
   <si>
-    <t>ACPCP</t>
-  </si>
-  <si>
     <t>Radix</t>
-  </si>
-  <si>
-    <t>ACP &amp; Cache Pin</t>
   </si>
   <si>
     <t>Writer</t>
@@ -73,12 +67,18 @@
   <si>
     <t>Load Miss</t>
   </si>
+  <si>
+    <t>Fmm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,6 +125,11 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -146,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -156,6 +161,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -196,7 +204,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>speedup!$H$2</c:f>
+              <c:f>speedup!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -219,22 +227,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>speedup!$G$3:$G$7</c:f>
+              <c:f>speedup!$F$3:$F$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Single</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Fmm</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Barnes</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Ocean</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>LU</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Radix</c:v>
                 </c:pt>
               </c:strCache>
@@ -242,10 +253,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>speedup!$H$3:$H$7</c:f>
+              <c:f>speedup!$G$3:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -259,6 +270,9 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -270,7 +284,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>speedup!$I$2</c:f>
+              <c:f>speedup!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -293,22 +307,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>speedup!$G$3:$G$7</c:f>
+              <c:f>speedup!$F$3:$F$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Single</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Fmm</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Barnes</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Ocean</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>LU</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Radix</c:v>
                 </c:pt>
               </c:strCache>
@@ -316,99 +333,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>speedup!$I$3:$I$7</c:f>
+              <c:f>speedup!$H$3:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.267636878287147</c:v>
+                  <c:v>1.218159959499308</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.995765409874022</c:v>
+                  <c:v>1.020952807160316</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.01627214122344</c:v>
+                  <c:v>1.018530028146987</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.997079450693667</c:v>
+                  <c:v>1.088001730076523</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.197931067243801</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>speedup!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ACP &amp; Cache Pin</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>speedup!$G$3:$G$7</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Barnes</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Ocean</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LU</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Radix</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>speedup!$J$3:$J$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.254161717256024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.135006809409679</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.080119809509118</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.342830415091212</c:v>
+                  <c:v>0.999963196042696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.16522742639875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -423,11 +368,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="300"/>
-        <c:axId val="-2094365520"/>
-        <c:axId val="-2094362048"/>
+        <c:axId val="-2125774944"/>
+        <c:axId val="-2146634864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2094365520"/>
+        <c:axId val="-2125774944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -470,7 +415,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094362048"/>
+        <c:crossAx val="-2146634864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -478,18 +423,23 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2094362048"/>
+        <c:axId val="-2146634864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.4"/>
-          <c:min val="0.6"/>
+          <c:max val="1.25"/>
+          <c:min val="0.9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -534,14 +484,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.00877002067092002"/>
-              <c:y val="0.191672008570955"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -607,11 +550,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094365520"/>
+        <c:crossAx val="-2125774944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.1"/>
-        <c:minorUnit val="0.1"/>
+        <c:majorUnit val="0.05"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -623,16 +565,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.829365611548443"/>
-          <c:y val="0.21371541467266"/>
-          <c:w val="0.140551977323363"/>
-          <c:h val="0.298937358777937"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -695,7 +628,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -709,14 +642,215 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'network message'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'network message'!$F$2:$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fmm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Barnes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ocean</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Radix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'network message'!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'network message'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ACP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'network message'!$F$2:$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fmm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Barnes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ocean</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Radix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'network message'!$H$2:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.023903900992931</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.001277289411816</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.996462640504354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98599878180124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.01108206219911</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.996691974565667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="300"/>
+        <c:axId val="-2125688704"/>
+        <c:axId val="-2125685296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2125688704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -728,162 +862,60 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="2400" b="1" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="Times New Roman" charset="0"/>
-                <a:ea typeface="Times New Roman" charset="0"/>
-                <a:cs typeface="Times New Roman" charset="0"/>
-              </a:rPr>
-              <a:t>Shared Data Load Hit/Miss Rate</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="2400">
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" charset="0"/>
-              <a:ea typeface="Times New Roman" charset="0"/>
-              <a:cs typeface="Times New Roman" charset="0"/>
-            </a:endParaRPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+        </c:txPr>
+        <c:crossAx val="-2125685296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2125685296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.05"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="bg1">
-                          <a:lumMod val="85000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -891,77 +923,88 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" b="1">
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
+                  </a:rPr>
+                  <a:t>Network Message</a:t>
+                </a:r>
               </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>update!$D$1:$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Load Hit</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Load Miss</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>update!$E$1:$E$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2125688704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.05"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1034,567 +1077,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0752457282125448"/>
-          <c:y val="0.230704120546926"/>
-          <c:w val="0.762734048124937"/>
-          <c:h val="0.731318702736415"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>speedup!$M$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Base</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>speedup!$L$3:$L$7</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Barnes</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Ocean</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LU</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Radix</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>speedup!$M$3:$M$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>speedup!$N$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ACP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>speedup!$L$3:$L$7</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Barnes</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Ocean</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LU</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Radix</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>speedup!$N$3:$N$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.267636878287147</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.995765409874022</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.01627214122344</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.997079450693667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.197931067243801</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>speedup!$O$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ACP &amp; Cache Pin</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>speedup!$L$3:$L$7</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Barnes</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Ocean</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LU</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Radix</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>speedup!$O$3:$O$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.254161717256024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.135006809409679</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.410442154840681</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.080119809509118</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.342830415091212</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="300"/>
-        <c:axId val="-2091608160"/>
-        <c:axId val="-2091605248"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-2091608160"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091605248"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2091605248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2.4"/>
-          <c:min val="2.3"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US" sz="1800" b="1">
-                  <a:latin typeface="Times New Roman" charset="0"/>
-                  <a:ea typeface="Times New Roman" charset="0"/>
-                  <a:cs typeface="Times New Roman" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2091608160"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="0.1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.891393227247919"/>
-          <c:y val="0.123632936840342"/>
-          <c:w val="0.10860679161336"/>
-          <c:h val="0.786914391285212"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:noFill/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst>
-      <a:outerShdw sx="1000" sy="1000" algn="ctr" rotWithShape="0">
-        <a:srgbClr val="000000"/>
-      </a:outerShdw>
-    </a:effectLst>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -1621,7 +1103,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'network message'!$H$1</c:f>
+              <c:f>'cache hit'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1644,22 +1126,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'network message'!$G$2:$G$6</c:f>
+              <c:f>'cache hit'!$F$2:$F$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Single</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Fmm</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Barnes</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Ocean</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>LU</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Radix</c:v>
                 </c:pt>
               </c:strCache>
@@ -1667,10 +1152,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'network message'!$H$2:$H$6</c:f>
+              <c:f>'cache hit'!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -1684,6 +1169,9 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1695,7 +1183,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'network message'!$I$1</c:f>
+              <c:f>'cache hit'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1718,22 +1206,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'network message'!$G$2:$G$6</c:f>
+              <c:f>'cache hit'!$F$2:$F$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Single</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Fmm</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Barnes</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Ocean</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>LU</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Radix</c:v>
                 </c:pt>
               </c:strCache>
@@ -1741,99 +1232,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'network message'!$I$2:$I$6</c:f>
+              <c:f>'cache hit'!$H$2:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.028139958261242</c:v>
+                  <c:v>1.027249485248646</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.012549012318763</c:v>
+                  <c:v>0.997776063414036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.999445890168</c:v>
+                  <c:v>1.003553485843862</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.033534761532412</c:v>
+                  <c:v>1.012663322479392</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.996691974565667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'network message'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ACP &amp; Cache Pin</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'network message'!$G$2:$G$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Barnes</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Ocean</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LU</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Radix</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'network message'!$J$2:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.03528839162657</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.010566962457908</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.947347584574047</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.000039125117021</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.978520284163734</c:v>
+                  <c:v>1.0001509960483</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.046583004248601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1848,11 +1267,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="300"/>
-        <c:axId val="-2094279216"/>
-        <c:axId val="-2094275808"/>
+        <c:axId val="2138048336"/>
+        <c:axId val="-2124143952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2094279216"/>
+        <c:axId val="2138048336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1895,7 +1314,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094275808"/>
+        <c:crossAx val="-2124143952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1903,18 +1322,23 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2094275808"/>
+        <c:axId val="-2124143952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.1"/>
-          <c:min val="0.6"/>
+          <c:max val="1.05"/>
+          <c:min val="0.95"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1954,11 +1378,12 @@
                     <a:ea typeface="Times New Roman" charset="0"/>
                     <a:cs typeface="Times New Roman" charset="0"/>
                   </a:rPr>
-                  <a:t>Network Message</a:t>
+                  <a:t>Cache Hit Count</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2024,7 +1449,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094279216"/>
+        <c:crossAx val="2138048336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -2039,16 +1464,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -2131,7 +1552,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'cache hit'!$H$1</c:f>
+              <c:f>'evict cycles'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2154,22 +1575,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'cache hit'!$G$2:$G$6</c:f>
+              <c:f>'evict cycles'!$F$2:$F$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Single</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Fmm</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Barnes</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Ocean</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>LU</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Radix</c:v>
                 </c:pt>
               </c:strCache>
@@ -2177,10 +1601,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'cache hit'!$H$2:$H$6</c:f>
+              <c:f>'evict cycles'!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -2194,6 +1618,9 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2205,7 +1632,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'cache hit'!$I$1</c:f>
+              <c:f>'evict cycles'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2228,22 +1655,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'cache hit'!$G$2:$G$6</c:f>
+              <c:f>'evict cycles'!$F$2:$F$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Single</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Fmm</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Barnes</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Ocean</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>LU</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Radix</c:v>
                 </c:pt>
               </c:strCache>
@@ -2251,99 +1681,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'cache hit'!$I$2:$I$6</c:f>
+              <c:f>'evict cycles'!$H$2:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.027249485248646</c:v>
+                  <c:v>1.007765414414135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.000864394527264</c:v>
+                  <c:v>1.004175693258563</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.002855874840447</c:v>
+                  <c:v>0.992988085421671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.999779587112849</c:v>
+                  <c:v>0.996078729321827</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.046583004248601</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'cache hit'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ACP &amp; Cache Pin</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'cache hit'!$G$2:$G$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Barnes</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Ocean</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LU</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Radix</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'cache hit'!$J$2:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.031999526860084</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.01199412156675</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.110996261802713</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.006963646616957</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.057461589216214</c:v>
+                  <c:v>0.994865544671352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.978309506186363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2358,11 +1716,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="300"/>
-        <c:axId val="-2092435296"/>
-        <c:axId val="-2092431888"/>
+        <c:axId val="-2124091184"/>
+        <c:axId val="-2124087776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2092435296"/>
+        <c:axId val="-2124091184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2405,7 +1763,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092431888"/>
+        <c:crossAx val="-2124087776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2413,18 +1771,23 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2092431888"/>
+        <c:axId val="-2124087776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.12"/>
-          <c:min val="0.9"/>
+          <c:max val="1.02"/>
+          <c:min val="0.96"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2446,16 +1809,16 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -2464,11 +1827,25 @@
                     <a:ea typeface="Times New Roman" charset="0"/>
                     <a:cs typeface="Times New Roman" charset="0"/>
                   </a:rPr>
-                  <a:t>Cache Hit Count</a:t>
+                  <a:t>Cache Eviction Overhead</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" b="1" baseline="0">
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2400" b="1">
+                  <a:latin typeface="Times New Roman" charset="0"/>
+                  <a:ea typeface="Times New Roman" charset="0"/>
+                  <a:cs typeface="Times New Roman" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2482,16 +1859,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:latin typeface="Times New Roman" charset="0"/>
+                  <a:ea typeface="Times New Roman" charset="0"/>
+                  <a:cs typeface="Times New Roman" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -2534,7 +1911,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092435296"/>
+        <c:crossAx val="-2124091184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.02"/>
@@ -2549,6 +1926,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2636,7 +2014,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'evict cycles'!$H$1</c:f>
+              <c:f>'avg network message on load'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2659,22 +2037,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'evict cycles'!$G$2:$G$6</c:f>
+              <c:f>'avg network message on load'!$G$2:$G$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Single</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Fmm</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Barnes</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Ocean</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>LU</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Radix</c:v>
                 </c:pt>
               </c:strCache>
@@ -2682,10 +2063,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'evict cycles'!$H$2:$H$6</c:f>
+              <c:f>'avg network message on load'!$H$2:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -2699,6 +2080,9 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2710,7 +2094,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'evict cycles'!$I$1</c:f>
+              <c:f>'avg network message on load'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2733,22 +2117,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'evict cycles'!$G$2:$G$6</c:f>
+              <c:f>'avg network message on load'!$G$2:$G$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Single</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Fmm</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Barnes</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Ocean</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>LU</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Radix</c:v>
                 </c:pt>
               </c:strCache>
@@ -2756,99 +2143,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'evict cycles'!$I$2:$I$6</c:f>
+              <c:f>'avg network message on load'!$I$2:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.007765414414135</c:v>
+                  <c:v>0.990090875027651</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.011996682323425</c:v>
+                  <c:v>0.999025293967192</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.004014956233748</c:v>
+                  <c:v>0.993887504676129</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.996075643900757</c:v>
+                  <c:v>0.987869557666359</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.978309506186363</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'evict cycles'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ACP &amp; Cache Pin</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'evict cycles'!$G$2:$G$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Barnes</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Ocean</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LU</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Radix</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'evict cycles'!$J$2:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.921432277692284</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0197851296328554</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0111220321670536</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.206346069779757</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.446555182760623</c:v>
+                  <c:v>1.007576307348438</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.997885399280504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2863,11 +2178,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="300"/>
-        <c:axId val="-2091579568"/>
-        <c:axId val="-2091576160"/>
+        <c:axId val="1812666912"/>
+        <c:axId val="1810113808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2091579568"/>
+        <c:axId val="1812666912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2910,7 +2225,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2091576160"/>
+        <c:crossAx val="1810113808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2918,18 +2233,21 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2091576160"/>
+        <c:axId val="1810113808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.1"/>
-          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2951,29 +2269,37 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Times New Roman" charset="0"/>
-                    <a:ea typeface="Times New Roman" charset="0"/>
-                    <a:cs typeface="Times New Roman" charset="0"/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2400" b="1">
+                  <a:rPr lang="en-US" sz="2400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
                     <a:latin typeface="Times New Roman" charset="0"/>
                     <a:ea typeface="Times New Roman" charset="0"/>
                     <a:cs typeface="Times New Roman" charset="0"/>
                   </a:rPr>
-                  <a:t>Eviction Cost</a:t>
+                  <a:t>Average Network Message per Load</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="2400">
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" charset="0"/>
+                  <a:ea typeface="Times New Roman" charset="0"/>
+                  <a:cs typeface="Times New Roman" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2987,16 +2313,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="Times New Roman" charset="0"/>
-                  <a:ea typeface="Times New Roman" charset="0"/>
-                  <a:cs typeface="Times New Roman" charset="0"/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -3010,12 +2336,7 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3039,10 +2360,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2091579568"/>
+        <c:crossAx val="1812666912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.1"/>
+        <c:majorUnit val="0.01"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3054,6 +2375,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3116,517 +2438,6 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'avg network message on load'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Base</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'avg network message on load'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Barnes</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Ocean</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LU</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Radix</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'avg network message on load'!$B$2:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.21513</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.47862</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.50389</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.25709</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.50383</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'avg network message on load'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ACP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'avg network message on load'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Barnes</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Ocean</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LU</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Radix</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'avg network message on load'!$C$2:$C$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.19318</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.49507</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.49953</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.29094</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.50065</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'avg network message on load'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ACP &amp; Cache Pin</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'avg network message on load'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Barnes</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Ocean</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LU</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Radix</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'avg network message on load'!$D$2:$D$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.19545</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.49537</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.49858</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.25461</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.52335</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="300"/>
-        <c:axId val="-2091490240"/>
-        <c:axId val="-2091486832"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-2091490240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2091486832"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2091486832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="1.2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="Times New Roman" charset="0"/>
-                    <a:ea typeface="Times New Roman" charset="0"/>
-                    <a:cs typeface="Times New Roman" charset="0"/>
-                  </a:rPr>
-                  <a:t>Average Network Message per Load</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="2400" b="1">
-                  <a:latin typeface="Times New Roman" charset="0"/>
-                  <a:ea typeface="Times New Roman" charset="0"/>
-                  <a:cs typeface="Times New Roman" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2091490240"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="0.1"/>
-        <c:minorUnit val="0.1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3890,7 +2701,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3954,11 +2764,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="300"/>
-        <c:axId val="-2094302096"/>
-        <c:axId val="-2094257856"/>
+        <c:axId val="-2125733808"/>
+        <c:axId val="-2125726384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2094302096"/>
+        <c:axId val="-2125733808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4001,7 +2811,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094257856"/>
+        <c:crossAx val="-2125726384"/>
         <c:crossesAt val="0.8"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4009,7 +2819,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2094257856"/>
+        <c:axId val="-2125726384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -4131,7 +2941,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094302096"/>
+        <c:crossAx val="-2125733808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.02"/>
@@ -4176,7 +2986,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4645,7 +3455,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4906,7 +3716,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4970,11 +3779,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="300"/>
-        <c:axId val="-2094056528"/>
-        <c:axId val="-2094053200"/>
+        <c:axId val="-2125552592"/>
+        <c:axId val="-2125549952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2094056528"/>
+        <c:axId val="-2125552592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5017,7 +3826,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094053200"/>
+        <c:crossAx val="-2125549952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5025,7 +3834,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2094053200"/>
+        <c:axId val="-2125549952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -5147,7 +3956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094056528"/>
+        <c:crossAx val="-2125552592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.01"/>
@@ -5192,47 +4001,346 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" charset="0"/>
+                <a:ea typeface="Times New Roman" charset="0"/>
+                <a:cs typeface="Times New Roman" charset="0"/>
+              </a:rPr>
+              <a:t>Shared Data Load Hit/Miss Rate</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" charset="0"/>
+              <a:ea typeface="Times New Roman" charset="0"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1">
+                          <a:lumMod val="85000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>update!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Load Hit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Load Miss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>update!$E$1:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
-<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6095,8 +5203,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6153,7 +5261,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6204,13 +5312,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6221,19 +5322,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6271,7 +5365,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6314,23 +5408,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6435,8 +5528,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6568,20 +5661,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6614,7 +5706,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7117,7 +6209,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7620,7 +6712,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8123,7 +7215,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8626,8 +7718,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8684,7 +7776,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -8735,6 +7827,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8745,12 +7844,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -8788,7 +7894,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -8831,22 +7937,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8951,8 +8058,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9084,19 +8191,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9129,7 +8237,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9632,7 +8740,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10119,509 +9227,6 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10660,59 +9265,30 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>263325</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>185295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>687505</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>116840</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>124335</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="57" name="Group 56"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="263325" y="2235200"/>
-          <a:ext cx="13441680" cy="4206240"/>
-          <a:chOff x="6535723" y="5836205"/>
-          <a:chExt cx="4606094" cy="3710718"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:graphicFrame macro="">
-        <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="10" name="Chart 9"/>
-          <xdr:cNvGraphicFramePr/>
-        </xdr:nvGraphicFramePr>
-        <xdr:xfrm>
-          <a:off x="6535723" y="6201342"/>
-          <a:ext cx="4600592" cy="3345581"/>
-        </xdr:xfrm>
-        <a:graphic>
-          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          </a:graphicData>
-        </a:graphic>
-      </xdr:graphicFrame>
-      <xdr:graphicFrame macro="">
-        <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="49" name="Chart 48"/>
-          <xdr:cNvGraphicFramePr/>
-        </xdr:nvGraphicFramePr>
-        <xdr:xfrm>
-          <a:off x="6541225" y="5836205"/>
-          <a:ext cx="4600592" cy="454990"/>
-        </xdr:xfrm>
-        <a:graphic>
-          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-          </a:graphicData>
-        </a:graphic>
-      </xdr:graphicFrame>
-    </xdr:grpSp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10768,13 +9344,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>195580</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>2540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10803,13 +9379,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>367030</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10838,13 +9414,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>608330</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>78740</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10872,19 +9448,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>557530</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66040</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>455930</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11293,258 +9869,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O7"/>
+  <dimension ref="A2:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="G2" t="s">
+        <v>4</v>
       </c>
       <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>2314159558</v>
+        <v>2325182972</v>
       </c>
       <c r="C3" s="2">
-        <v>1825569765</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1845184338</v>
-      </c>
-      <c r="G3" t="s">
+        <v>1817921149</v>
+      </c>
+      <c r="F3" t="s">
         <v>2</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
       <c r="H3">
+        <f>(B3-C3)/B3+1</f>
+        <v>1.2181599594993078</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <f>B3/C3</f>
-        <v>1.2676368782871468</v>
-      </c>
-      <c r="J3">
-        <f>B3/D3</f>
-        <v>1.254161717256024</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3">
+        <v>1.2790340072114976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <v>105729747</v>
+      </c>
+      <c r="C4" s="2">
+        <v>103514412</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="N3">
-        <f>B3/C3</f>
-        <v>1.2676368782871468</v>
-      </c>
-      <c r="O3">
-        <f>B3/D3</f>
-        <v>1.254161717256024</v>
+      <c r="H4">
+        <f>(B4-C4)/B4+1</f>
+        <v>1.020952807160316</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f>B4/C4</f>
+        <v>1.0214012228558087</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
-        <v>9672760671</v>
-      </c>
-      <c r="C4" s="1">
-        <v>9713895035</v>
-      </c>
-      <c r="D4" s="1">
-        <v>8522204969</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B5" s="1">
+        <v>30180850</v>
+      </c>
+      <c r="C5" s="1">
+        <v>29621598</v>
+      </c>
+      <c r="F5" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="1">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="I4">
-        <f>B4/C4</f>
-        <v>0.99576540987402173</v>
-      </c>
-      <c r="J4">
-        <f>B4/D4</f>
-        <v>1.1350068094096788</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="H5">
+        <f t="shared" ref="H5:H8" si="0">(B5-C5)/B5+1</f>
+        <v>1.0185300281469873</v>
+      </c>
+      <c r="J5" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="1">
+      <c r="K5" s="1">
         <v>1</v>
       </c>
-      <c r="N4">
-        <f>B4/C4</f>
-        <v>0.99576540987402173</v>
-      </c>
-      <c r="O4">
-        <f>B4/D4</f>
-        <v>1.1350068094096788</v>
+      <c r="L5">
+        <f>B5/C5</f>
+        <v>1.0188798727198984</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
-        <v>851554342</v>
-      </c>
-      <c r="C5" s="1">
-        <v>837919596</v>
-      </c>
-      <c r="D5" s="1">
-        <v>353277236</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B6" s="1">
+        <v>69754140</v>
+      </c>
+      <c r="C6" s="1">
+        <v>63615655</v>
+      </c>
+      <c r="F6" t="s">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="I5">
-        <f>B5/C5</f>
-        <v>1.0162721412234403</v>
-      </c>
-      <c r="J5">
-        <v>1.41</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1.088001730076523</v>
+      </c>
+      <c r="J6" t="s">
         <v>1</v>
       </c>
-      <c r="M5">
+      <c r="K6">
         <v>1</v>
       </c>
-      <c r="N5">
-        <f>B5/C5</f>
-        <v>1.0162721412234403</v>
-      </c>
-      <c r="O5">
-        <f>B5/D5</f>
-        <v>2.4104421548406814</v>
+      <c r="L6">
+        <f>B6/C6</f>
+        <v>1.0964933081330375</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
-        <v>40315743</v>
-      </c>
-      <c r="C6" s="2">
-        <v>40433832</v>
-      </c>
-      <c r="D6" s="2">
-        <v>37325251</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="B7" s="2">
+        <v>348875527</v>
+      </c>
+      <c r="C7" s="2">
+        <v>348888367</v>
+      </c>
+      <c r="F7" t="s">
         <v>3</v>
       </c>
-      <c r="H6">
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="I6">
-        <f>B6/C6</f>
-        <v>0.99707945069366666</v>
-      </c>
-      <c r="J6">
-        <f>B6/D6</f>
-        <v>1.0801198095091176</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.99996319604269635</v>
+      </c>
+      <c r="J7" t="s">
         <v>3</v>
       </c>
-      <c r="M6">
+      <c r="K7">
         <v>1</v>
       </c>
-      <c r="N6">
-        <f>B6/C6</f>
-        <v>0.99707945069366666</v>
-      </c>
-      <c r="O6">
-        <f>B6/D6</f>
-        <v>1.0801198095091176</v>
+      <c r="L7">
+        <f>B7/C7</f>
+        <v>0.99996319739717776</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
         <v>218183862</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>182133904</v>
       </c>
-      <c r="D7" s="2">
-        <v>162480578</v>
-      </c>
-      <c r="G7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7">
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
-      <c r="I7">
-        <f>B7/C7</f>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1.1652274263987499</v>
+      </c>
+      <c r="J8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f>B8/C8</f>
         <v>1.1979310672438011</v>
-      </c>
-      <c r="J7">
-        <f>B7/D7</f>
-        <v>1.3428304150912116</v>
-      </c>
-      <c r="L7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <f>B7/C7</f>
-        <v>1.1979310672438011</v>
-      </c>
-      <c r="O7">
-        <f>B7/D7</f>
-        <v>1.3428304150912116</v>
       </c>
     </row>
   </sheetData>
@@ -11556,180 +10099,159 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
+      <c r="G1" t="s">
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>194373778</v>
+        <v>194686382</v>
       </c>
       <c r="C2" s="2">
-        <v>199843448</v>
-      </c>
-      <c r="D2" s="2">
-        <v>201232916</v>
-      </c>
-      <c r="G2" t="s">
+        <v>199340146</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="H2">
         <f>C2/B2</f>
-        <v>1.0281399582612425</v>
-      </c>
-      <c r="J2">
-        <f>D2/B2</f>
-        <v>1.03528839162657</v>
+        <v>1.0239039009929314</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>11818778</v>
+      </c>
+      <c r="C3" s="2">
+        <v>11833874</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H4" si="0">C3/B3</f>
+        <v>1.0012772894118156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>1373421554</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1390656638</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1387934448</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="B4">
+        <v>3590814</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3578112</v>
+      </c>
+      <c r="F4" t="s">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="I3">
-        <f>C3/B3</f>
-        <v>1.0125490123187626</v>
-      </c>
-      <c r="J3">
-        <f>D3/B3</f>
-        <v>1.0105669624579083</v>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.99646264050435363</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>51246158</v>
-      </c>
-      <c r="C4" s="1">
-        <v>51217762</v>
-      </c>
-      <c r="D4" s="1">
-        <v>48547924</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B5" s="1">
+        <v>4462326</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4399848</v>
+      </c>
+      <c r="F5" t="s">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="I4">
-        <f>C4/B4</f>
-        <v>0.99944589016800045</v>
-      </c>
-      <c r="J4">
-        <f>D4/B4</f>
-        <v>0.94734758457404744</v>
+      <c r="H5">
+        <f>C5/B5</f>
+        <v>0.98599878180124001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>3527146</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3645428</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3527284</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B6" s="2">
+        <v>28082138</v>
+      </c>
+      <c r="C6" s="2">
+        <v>28393346</v>
+      </c>
+      <c r="F6" t="s">
         <v>3</v>
       </c>
-      <c r="H5">
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="I5">
-        <f>C5/B5</f>
-        <v>1.0335347615324117</v>
-      </c>
-      <c r="J5">
-        <f>D5/B5</f>
-        <v>1.0000391251170209</v>
+      <c r="H6">
+        <f>C6/B6</f>
+        <v>1.0110820621991103</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
         <v>8552534</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <v>8524242</v>
       </c>
-      <c r="D6" s="2">
-        <v>8368828</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6">
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="I6">
-        <f>C6/B6</f>
+      <c r="H7">
+        <f>C7/B7</f>
         <v>0.99669197456566672</v>
-      </c>
-      <c r="J6">
-        <f>D6/B6</f>
-        <v>0.97852028416373438</v>
       </c>
     </row>
   </sheetData>
@@ -11740,10 +10262,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11751,27 +10273,21 @@
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
+      <c r="G1" t="s">
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11781,134 +10297,120 @@
       <c r="C2" s="2">
         <v>77639701</v>
       </c>
-      <c r="D2" s="2">
-        <v>77998710</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="H2">
         <f>C2/B2</f>
         <v>1.0272494852486458</v>
       </c>
-      <c r="J2">
-        <f>D2/B2</f>
-        <v>1.0319995268600841</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7882419</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7864889</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H4" si="0">C3/B3</f>
+        <v>0.99777606341403569</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
-        <v>914863497</v>
-      </c>
-      <c r="C3" s="1">
-        <v>915654300</v>
-      </c>
-      <c r="D3" s="1">
-        <v>925836481</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="B4" s="1">
+        <v>2465185</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2473945</v>
+      </c>
+      <c r="F4" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="1">
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="I3">
-        <f>C3/B3</f>
-        <v>1.0008643945272635</v>
-      </c>
-      <c r="J3">
-        <f>D3/B3</f>
-        <v>1.0119941215667501</v>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>1.0035534858438617</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>28548520</v>
-      </c>
-      <c r="C4" s="1">
-        <v>28630051</v>
-      </c>
-      <c r="D4" s="1">
-        <v>31717299</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B5" s="1">
+        <v>2556675</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2589051</v>
+      </c>
+      <c r="F5" t="s">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="I4">
-        <f>C4/B4</f>
-        <v>1.002855874840447</v>
-      </c>
-      <c r="J4">
-        <f>D4/B4</f>
-        <v>1.1109962618027134</v>
+      <c r="H5">
+        <f>C5/B5</f>
+        <v>1.0126633224793922</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>2713090</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2712492</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2731983</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B6" s="2">
+        <v>18834930</v>
+      </c>
+      <c r="C6" s="2">
+        <v>18837774</v>
+      </c>
+      <c r="F6" t="s">
         <v>3</v>
       </c>
-      <c r="H5">
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="I5">
-        <f>C5/B5</f>
-        <v>0.9997795871128492</v>
-      </c>
-      <c r="J5">
-        <f>D5/B5</f>
-        <v>1.0069636466169571</v>
+      <c r="H6">
+        <f>C6/B6</f>
+        <v>1.0001509960482997</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
         <v>3858682</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <v>4038431</v>
       </c>
-      <c r="D6" s="2">
-        <v>4080408</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6">
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="I6">
-        <f>C6/B6</f>
+      <c r="H7">
+        <f>C7/B7</f>
         <v>1.0465830042486008</v>
-      </c>
-      <c r="J6">
-        <f>D6/B6</f>
-        <v>1.0574615892162142</v>
       </c>
     </row>
   </sheetData>
@@ -11919,40 +10421,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
+      <c r="G1" t="s">
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11962,134 +10457,120 @@
       <c r="C2" s="2">
         <v>227238</v>
       </c>
-      <c r="D2" s="2">
-        <v>207771</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
       <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
         <f>C2/B2</f>
         <v>1.0077654144141348</v>
       </c>
-      <c r="J2" s="2">
-        <f>D2/B2</f>
-        <v>0.92143227769228386</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3679868</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3695234</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <f>C3/B3</f>
+        <v>1.0041756932585626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
-        <v>65244455</v>
-      </c>
-      <c r="C3" s="1">
-        <v>66027172</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1290870</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="B4" s="1">
+        <v>334716</v>
+      </c>
+      <c r="C4" s="1">
+        <v>332369</v>
+      </c>
+      <c r="F4" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="1">
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="2">
-        <f>C3/B3</f>
-        <v>1.011996682323425</v>
-      </c>
-      <c r="J3" s="2">
-        <f>D3/B3</f>
-        <v>1.9785129632855388E-2</v>
+      <c r="H4" s="2">
+        <f>C4/B4</f>
+        <v>0.99298808542167094</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>184753197</v>
-      </c>
-      <c r="C4" s="1">
-        <v>185494973</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2054831</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B5" s="1">
+        <v>11240234</v>
+      </c>
+      <c r="C5" s="1">
+        <v>11196158</v>
+      </c>
+      <c r="F5" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="1">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="2">
-        <f>C4/B4</f>
-        <v>1.0040149562337479</v>
-      </c>
-      <c r="J4" s="2">
-        <f>D4/B4</f>
-        <v>1.1122032167053651E-2</v>
+      <c r="H5" s="2">
+        <f>C5/B5</f>
+        <v>0.99607872932182728</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>1406855</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1401334</v>
-      </c>
-      <c r="D5" s="2">
-        <v>290299</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B6" s="2">
+        <v>65580666</v>
+      </c>
+      <c r="C6" s="2">
+        <v>65243945</v>
+      </c>
+      <c r="F6" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="2">
+      <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="2">
-        <f>C5/B5</f>
-        <v>0.99607564390075731</v>
-      </c>
-      <c r="J5" s="2">
-        <f>D5/B5</f>
-        <v>0.20634606977975697</v>
+      <c r="H6" s="2">
+        <f>C6/B6</f>
+        <v>0.9948655446713518</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
         <v>39484025</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <v>38627597</v>
       </c>
-      <c r="D6" s="2">
-        <v>17631796</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="2">
-        <f>C6/B6</f>
+      <c r="H7" s="2">
+        <f>C7/B7</f>
         <v>0.9783095061863627</v>
-      </c>
-      <c r="J6" s="2">
-        <f>D6/B6</f>
-        <v>0.44655518276062278</v>
       </c>
     </row>
   </sheetData>
@@ -12100,96 +10581,166 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:D6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
+      <c r="F1" s="9"/>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="10">
         <v>2.2151299999999998</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="10">
         <v>2.1931799999999999</v>
       </c>
-      <c r="D2" s="2">
-        <v>2.1954500000000001</v>
+      <c r="F2" s="9"/>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <f>C2/B2</f>
+        <v>0.99009087502765081</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1.44659</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.4451799999999999</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <f>C3/B3</f>
+        <v>0.99902529396719175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
-        <v>1.47862</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.4950699999999999</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.4953700000000001</v>
+      <c r="B4" s="11">
+        <v>1.4167700000000001</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1.40811</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I7" si="0">C4/B4</f>
+        <v>0.99388750467612941</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>1.5038899999999999</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.49953</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.49858</v>
+      <c r="B5" s="11">
+        <v>1.4970600000000001</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1.4789000000000001</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98786955766635942</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>1.25709</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.29094</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.25461</v>
+      <c r="B6" s="10">
+        <v>1.37798</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1.38842</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0075763073484376</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
         <v>1.50383</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="10">
         <v>1.50065</v>
       </c>
-      <c r="D6" s="2">
-        <v>1.52335</v>
+      <c r="F7" s="9"/>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99788539928050379</v>
       </c>
     </row>
   </sheetData>
@@ -12214,14 +10765,14 @@
   <sheetData>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4">
         <v>0.871139</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6">
         <v>0.51400000000000001</v>
@@ -12230,14 +10781,14 @@
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3">
         <v>0.84587500000000004</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="6">
         <v>0.48599999999999999</v>
@@ -12245,7 +10796,7 @@
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3">
         <v>0.84589999999999999</v>
@@ -12274,7 +10825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -12285,14 +10836,14 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4">
         <v>0.99523399999999995</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" s="6">
         <v>0.998</v>
@@ -12300,14 +10851,14 @@
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3">
         <v>0.99221300000000001</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" s="6">
         <v>2E-3</v>
@@ -12315,7 +10866,7 @@
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3">
         <v>0.99212299999999998</v>
